--- a/pics_to_discuss/bxyl_pics/bxyl-TS_weighted_gibbs.xlsx
+++ b/pics_to_discuss/bxyl_pics/bxyl-TS_weighted_gibbs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justi\Desktop\pics_to_discuss\bxyl_pics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justi\Desktop\Winter 2017\Research\codes\python\qm_utils\pucker_prog_data\pics_to_discuss\bxyl_pics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="9435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="bxyl-TS_weighted_gibbs" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="44">
-  <si>
-    <t>pucker</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="44">
+  <si>
+    <t>method</t>
   </si>
   <si>
     <t>REFERENCE</t>
@@ -1828,8 +1828,8 @@
       <c r="D3">
         <v>10.2962346884445</v>
       </c>
-      <c r="E3">
-        <v>8.6709193620003404</v>
+      <c r="E3" t="s">
+        <v>9</v>
       </c>
       <c r="F3">
         <v>4.6749420499999701</v>
@@ -1915,8 +1915,8 @@
       <c r="D6">
         <v>7.9398713770001503</v>
       </c>
-      <c r="E6">
-        <v>8.6709193620003404</v>
+      <c r="E6" t="s">
+        <v>9</v>
       </c>
       <c r="F6">
         <v>4.6749420499999701</v>
@@ -1945,7 +1945,7 @@
         <v>15.9964594280623</v>
       </c>
       <c r="E7">
-        <v>5.6670337790001399</v>
+        <v>8.5535751790001004</v>
       </c>
       <c r="F7">
         <v>7.1115594969999796</v>
@@ -2003,7 +2003,7 @@
         <v>16.216513913530299</v>
       </c>
       <c r="E9">
-        <v>5.9359567581401098</v>
+        <v>8.1995647287380606</v>
       </c>
       <c r="F9">
         <v>6.72319495608631</v>
@@ -2090,7 +2090,7 @@
         <v>14.169399123761901</v>
       </c>
       <c r="E12">
-        <v>8.4847058319437494</v>
+        <v>7.7814799422271799</v>
       </c>
       <c r="F12">
         <v>5.9499082396965202</v>
@@ -2119,7 +2119,7 @@
         <v>9.8225321381299509</v>
       </c>
       <c r="E13">
-        <v>5.59055101345478</v>
+        <v>5.6071308530843202</v>
       </c>
       <c r="F13">
         <v>4.9722444253491602</v>
@@ -2148,7 +2148,7 @@
         <v>8.7248851360156898</v>
       </c>
       <c r="E14">
-        <v>8.4299559060000995</v>
+        <v>5.2378574966568801</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -2293,7 +2293,7 @@
         <v>9.2081367875100302</v>
       </c>
       <c r="E19">
-        <v>7.9756393900012501</v>
+        <v>5.2855083070003204</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -2322,7 +2322,7 @@
         <v>9.5553375872024802</v>
       </c>
       <c r="E20">
-        <v>8.2780987280000495</v>
+        <v>8.0666281950011491</v>
       </c>
       <c r="F20">
         <v>4.2275281329999901</v>
@@ -2467,7 +2467,7 @@
         <v>12.230720416947699</v>
       </c>
       <c r="E25">
-        <v>5.5423116011572802</v>
+        <v>8.2550962404092392</v>
       </c>
       <c r="F25">
         <v>7.9084959269999802</v>
@@ -2496,7 +2496,7 @@
         <v>10.0297419915732</v>
       </c>
       <c r="E26">
-        <v>7.2148880281788896</v>
+        <v>7.2121899392564801</v>
       </c>
       <c r="F26">
         <v>5.6095599233868096</v>
@@ -2525,7 +2525,7 @@
         <v>10.756349466242099</v>
       </c>
       <c r="E27">
-        <v>5.3247131431305199</v>
+        <v>7.9332610340737801</v>
       </c>
       <c r="F27">
         <v>5.1706867719220604</v>
@@ -2554,7 +2554,7 @@
         <v>15.0304843151452</v>
       </c>
       <c r="E28">
-        <v>6.9276993600007897</v>
+        <v>7.0490598761799896</v>
       </c>
       <c r="F28">
         <v>4.5787250502851604</v>
@@ -2582,8 +2582,8 @@
       <c r="D29" t="s">
         <v>9</v>
       </c>
-      <c r="E29" t="s">
-        <v>9</v>
+      <c r="E29">
+        <v>9.4408729050004006</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -2670,7 +2670,7 @@
         <v>11.382622776535699</v>
       </c>
       <c r="E32">
-        <v>7.1431271729372403</v>
+        <v>7.1428543642679303</v>
       </c>
       <c r="F32">
         <v>4.8685769595525299</v>
@@ -2699,7 +2699,7 @@
         <v>13.9433729239</v>
       </c>
       <c r="E33">
-        <v>5.3590296220803602</v>
+        <v>7.9155664455496204</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -2728,7 +2728,7 @@
         <v>10.756349466242099</v>
       </c>
       <c r="E34">
-        <v>5.33389349752954</v>
+        <v>8.7315907076980093</v>
       </c>
       <c r="F34">
         <v>5.1950553218282103</v>
@@ -3236,8 +3236,8 @@
       <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11">
-        <v>8.6709193620003404</v>
+      <c r="C5" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>9</v>
@@ -3245,17 +3245,17 @@
       <c r="E5" s="11">
         <v>7.1580761408283298</v>
       </c>
-      <c r="F5" s="11">
-        <v>8.6709193620003404</v>
+      <c r="F5" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="G5" s="11">
-        <v>5.6670337790001399</v>
+        <v>8.5535751790001004</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>9</v>
       </c>
       <c r="I5" s="11">
-        <v>5.9359567581401098</v>
+        <v>8.1995647287380606</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>9</v>
@@ -3264,13 +3264,13 @@
         <v>9</v>
       </c>
       <c r="L5" s="11">
-        <v>8.4847058319437494</v>
+        <v>7.7814799422271799</v>
       </c>
       <c r="M5" s="11">
-        <v>5.59055101345478</v>
+        <v>5.6071308530843202</v>
       </c>
       <c r="N5" s="11">
-        <v>8.4299559060000995</v>
+        <v>5.2378574966568801</v>
       </c>
       <c r="O5" s="11" t="s">
         <v>9</v>
@@ -3285,10 +3285,10 @@
         <v>9</v>
       </c>
       <c r="S5" s="11">
-        <v>7.9756393900012501</v>
+        <v>5.2855083070003204</v>
       </c>
       <c r="T5" s="11">
-        <v>8.2780987280000495</v>
+        <v>8.0666281950011491</v>
       </c>
       <c r="U5" s="11" t="s">
         <v>9</v>
@@ -3303,19 +3303,19 @@
         <v>9</v>
       </c>
       <c r="Y5" s="11">
-        <v>5.5423116011572802</v>
+        <v>8.2550962404092392</v>
       </c>
       <c r="Z5" s="11">
-        <v>7.2148880281788896</v>
+        <v>7.2121899392564801</v>
       </c>
       <c r="AA5" s="11">
-        <v>5.3247131431305199</v>
+        <v>7.9332610340737801</v>
       </c>
       <c r="AB5" s="11">
-        <v>6.9276993600007897</v>
-      </c>
-      <c r="AC5" s="11" t="s">
-        <v>9</v>
+        <v>7.0490598761799896</v>
+      </c>
+      <c r="AC5" s="11">
+        <v>9.4408729050004006</v>
       </c>
       <c r="AD5" s="11" t="s">
         <v>9</v>
@@ -3324,13 +3324,13 @@
         <v>9</v>
       </c>
       <c r="AF5" s="11">
-        <v>7.1431271729372403</v>
+        <v>7.1428543642679303</v>
       </c>
       <c r="AG5" s="11">
-        <v>5.3590296220803602</v>
+        <v>7.9155664455496204</v>
       </c>
       <c r="AH5" s="11">
-        <v>5.33389349752954</v>
+        <v>8.7315907076980093</v>
       </c>
       <c r="AI5" s="12" t="s">
         <v>9</v>
